--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>29.38258385046333</v>
+        <v>19.83837429022356</v>
       </c>
       <c r="R2">
-        <v>264.44325465417</v>
+        <v>178.545368612012</v>
       </c>
       <c r="S2">
-        <v>0.003260672918560335</v>
+        <v>0.002357159807287216</v>
       </c>
       <c r="T2">
-        <v>0.003260672918560335</v>
+        <v>0.002357159807287215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>138.0441118925015</v>
+        <v>121.0583421638549</v>
       </c>
       <c r="R3">
-        <v>1242.397007032514</v>
+        <v>1089.525079474694</v>
       </c>
       <c r="S3">
-        <v>0.01531916660241216</v>
+        <v>0.01438393359813187</v>
       </c>
       <c r="T3">
-        <v>0.01531916660241216</v>
+        <v>0.01438393359813186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>19.44188079179889</v>
+        <v>18.98371539943822</v>
       </c>
       <c r="R4">
-        <v>174.97692712619</v>
+        <v>170.853438594944</v>
       </c>
       <c r="S4">
-        <v>0.0021575234671779</v>
+        <v>0.002255610781302125</v>
       </c>
       <c r="T4">
-        <v>0.0021575234671779</v>
+        <v>0.002255610781302125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>4.75794485370289</v>
+        <v>4.21307448943</v>
       </c>
       <c r="R5">
-        <v>42.82150368332601</v>
+        <v>37.91767040487</v>
       </c>
       <c r="S5">
-        <v>0.0005280033237181723</v>
+        <v>0.0005005899024944546</v>
       </c>
       <c r="T5">
-        <v>0.0005280033237181723</v>
+        <v>0.0005005899024944545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>1217.952250767067</v>
+        <v>937.7121060090842</v>
       </c>
       <c r="R6">
-        <v>10961.5702569036</v>
+        <v>8439.408954081759</v>
       </c>
       <c r="S6">
-        <v>0.1351597919497865</v>
+        <v>0.1114172590331924</v>
       </c>
       <c r="T6">
-        <v>0.1351597919497865</v>
+        <v>0.1114172590331924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
-        <v>5722.135862532791</v>
+        <v>5722.13586253279</v>
       </c>
       <c r="R7">
-        <v>51499.22276279513</v>
+        <v>51499.22276279511</v>
       </c>
       <c r="S7">
-        <v>0.6350024741949081</v>
+        <v>0.6798938496510776</v>
       </c>
       <c r="T7">
-        <v>0.635002474194908</v>
+        <v>0.6798938496510775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>805.895172120578</v>
+        <v>897.3144415294578</v>
       </c>
       <c r="R8">
-        <v>7253.056549085201</v>
+        <v>8075.82997376512</v>
       </c>
       <c r="S8">
-        <v>0.08943258960156605</v>
+        <v>0.1066172814933706</v>
       </c>
       <c r="T8">
-        <v>0.08943258960156604</v>
+        <v>0.1066172814933706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>197.2239634568978</v>
+        <v>199.1418699164</v>
       </c>
       <c r="R9">
-        <v>1775.01567111208</v>
+        <v>1792.2768292476</v>
       </c>
       <c r="S9">
-        <v>0.02188653114402324</v>
+        <v>0.02366167735560288</v>
       </c>
       <c r="T9">
-        <v>0.02188653114402324</v>
+        <v>0.02366167735560288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>61.58130963612333</v>
+        <v>51.97973936557799</v>
       </c>
       <c r="R10">
-        <v>554.2317867251099</v>
+        <v>467.817654290202</v>
       </c>
       <c r="S10">
-        <v>0.00683386150251111</v>
+        <v>0.006176138761843313</v>
       </c>
       <c r="T10">
-        <v>0.006833861502511109</v>
+        <v>0.006176138761843312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>289.3189122222736</v>
+        <v>317.192375829261</v>
       </c>
       <c r="R11">
-        <v>2603.870210000462</v>
+        <v>2854.731382463349</v>
       </c>
       <c r="S11">
-        <v>0.0321065821410266</v>
+        <v>0.03768822528220631</v>
       </c>
       <c r="T11">
-        <v>0.03210658214102659</v>
+        <v>0.0376882252822063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>40.74714759741889</v>
+        <v>49.740395267136</v>
       </c>
       <c r="R12">
-        <v>366.7243283767701</v>
+        <v>447.663557404224</v>
       </c>
       <c r="S12">
-        <v>0.004521832435011993</v>
+        <v>0.005910063940070515</v>
       </c>
       <c r="T12">
-        <v>0.004521832435011993</v>
+        <v>0.005910063940070514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>9.971909780250892</v>
+        <v>11.038934475405</v>
       </c>
       <c r="R13">
-        <v>89.74718802225802</v>
+        <v>99.350410278645</v>
       </c>
       <c r="S13">
-        <v>0.001106612554303263</v>
+        <v>0.00131162625929106</v>
       </c>
       <c r="T13">
-        <v>0.001106612554303263</v>
+        <v>0.001311626259291059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N14">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q14">
-        <v>72.79454060129831</v>
+        <v>7.963500204506444</v>
       </c>
       <c r="R14">
-        <v>655.1508654116848</v>
+        <v>71.67150184055799</v>
       </c>
       <c r="S14">
-        <v>0.008078227169049714</v>
+        <v>0.0009462087131119743</v>
       </c>
       <c r="T14">
-        <v>0.008078227169049714</v>
+        <v>0.0009462087131119742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.161911</v>
       </c>
       <c r="O15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q15">
-        <v>342.0004775301751</v>
+        <v>48.59511764803011</v>
       </c>
       <c r="R15">
-        <v>3078.004297771577</v>
+        <v>437.356058832271</v>
       </c>
       <c r="S15">
-        <v>0.03795281248554185</v>
+        <v>0.005773984121611178</v>
       </c>
       <c r="T15">
-        <v>0.03795281248554185</v>
+        <v>0.005773984121611177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N16">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q16">
-        <v>48.16672311281055</v>
+        <v>7.620423894321778</v>
       </c>
       <c r="R16">
-        <v>433.500508015295</v>
+        <v>68.583815048896</v>
       </c>
       <c r="S16">
-        <v>0.005345204847505574</v>
+        <v>0.000905445005493139</v>
       </c>
       <c r="T16">
-        <v>0.005345204847505574</v>
+        <v>0.0009054450054931389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N17">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q17">
-        <v>11.78767706728256</v>
+        <v>1.691208113495</v>
       </c>
       <c r="R17">
-        <v>106.089093605543</v>
+        <v>15.220873021455</v>
       </c>
       <c r="S17">
-        <v>0.001308113662897515</v>
+        <v>0.0002009462939134579</v>
       </c>
       <c r="T17">
-        <v>0.001308113662897515</v>
+        <v>0.0002009462939134579</v>
       </c>
     </row>
   </sheetData>
